--- a/Doc/Regression Testing.xlsx
+++ b/Doc/Regression Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tang\Documents\GitHub\GMS2\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88513AC1-D9A2-4E2A-8917-8197A30E59DF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C65FD2-C90A-46C3-AA9B-1F5FA375609E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{0BF8E5CF-0CEE-4673-A648-97D9790CFA54}"/>
   </bookViews>
@@ -876,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91F0B04-3EBD-4EA0-A5F6-1A3CF0D2A22D}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,75 +889,243 @@
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
     <col min="8" max="8" width="17.5703125" customWidth="1"/>
     <col min="9" max="9" width="51.85546875" customWidth="1"/>
     <col min="10" max="10" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>107</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>108</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>109</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>112</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>113</v>
       </c>
@@ -965,7 +1133,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>114</v>
       </c>
@@ -973,7 +1141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>116</v>
       </c>
@@ -981,12 +1149,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -997,7 +1165,7 @@
       <c r="F13" s="1"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -1023,7 +1191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1049,7 +1217,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1422,215 +1590,19 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" t="s">
-        <v>119</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" t="s">
-        <v>101</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B47" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>6</v>
-      </c>
-      <c r="B48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>14</v>
-      </c>
-      <c r="B50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Regression Testing.xlsx
+++ b/Doc/Regression Testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tang\Documents\GitHub\GMS2\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C65FD2-C90A-46C3-AA9B-1F5FA375609E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B43C65-6120-45FA-82BA-842CC1F8DD27}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" xr2:uid="{0BF8E5CF-0CEE-4673-A648-97D9790CFA54}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="121">
   <si>
     <t>Valid Cases</t>
   </si>
@@ -345,9 +345,6 @@
     <t>1324 Saltfield Road, City, NT, 1000</t>
   </si>
   <si>
-    <t>Issues  - Create an Account</t>
-  </si>
-  <si>
     <t>MMS_TC_S03</t>
   </si>
   <si>
@@ -385,13 +382,19 @@
   </si>
   <si>
     <t>Able to view calendar</t>
+  </si>
+  <si>
+    <t>Issues  - Create an Account - This has been resolved</t>
+  </si>
+  <si>
+    <t>Resolved</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,14 +442,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -535,7 +530,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
@@ -549,11 +544,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="6" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -878,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91F0B04-3EBD-4EA0-A5F6-1A3CF0D2A22D}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,21 +897,21 @@
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>102</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>107</v>
+      <c r="A3" s="13" t="s">
+        <v>106</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>34</v>
@@ -951,8 +945,8 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>108</v>
+      <c r="A4" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>34</v>
@@ -979,15 +973,15 @@
         <v>34</v>
       </c>
       <c r="K4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>109</v>
+      <c r="A5" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>34</v>
@@ -1021,8 +1015,8 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>110</v>
+      <c r="A6" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>34</v>
@@ -1056,8 +1050,8 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>111</v>
+      <c r="A7" s="13" t="s">
+        <v>110</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>34</v>
@@ -1091,8 +1085,8 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>112</v>
+      <c r="A8" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>34</v>
@@ -1126,24 +1120,24 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>113</v>
+      <c r="A9" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>114</v>
+      <c r="A10" s="13" t="s">
+        <v>113</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>116</v>
+      <c r="A11" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>34</v>
@@ -1386,8 +1380,8 @@
       <c r="I23" t="s">
         <v>96</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>76</v>
+      <c r="J23" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="K23" t="s">
         <v>94</v>
@@ -1586,8 +1580,8 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>106</v>
+      <c r="A32" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
